--- a/FR_Frame_Body/FR_A0100 (Frame)/Minimum Rules - Primary Structures.xlsx
+++ b/FR_Frame_Body/FR_A0100 (Frame)/Minimum Rules - Primary Structures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calixthe\Desktop\EPSA\Gitkraken\STUF2020\STUF-2020\FR_Frame_Body\Frame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calixthe\Desktop\EPSA\Gitkraken\STUF2020\STUF-2020\FR_Frame_Body\FR_A0100 (Frame)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4902E464-0423-4806-A191-B39305875AC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575E58A5-A155-4AA1-B1CF-62E5F1C64EE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="684" windowWidth="21468" windowHeight="10872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etude Structure Primaire" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
   <si>
     <t>Minimum requirements of frame</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>Calixthe MATTEI</t>
-  </si>
-  <si>
-    <t>Sur cette image, il faut inverser la couleur des tubes jaunes et verts</t>
   </si>
   <si>
     <t>ULMTECHNOLOGIE</t>
@@ -389,14 +386,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,15 +535,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>453936</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1235610</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>294188</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>129940</xdr:rowOff>
+      <xdr:colOff>60959</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -569,13 +566,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect r="43655" b="47121"/>
+        <a:srcRect t="3877" b="53127"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14409422" y="2852057"/>
-          <a:ext cx="6284595" cy="2938454"/>
+          <a:off x="15195450" y="2453640"/>
+          <a:ext cx="5271869" cy="2880360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -952,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="R53" sqref="Q50:R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,26 +971,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H6" s="5" t="s">
@@ -1727,7 +1724,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>22</v>
       </c>
@@ -1751,9 +1748,6 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="L33" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
@@ -1781,7 +1775,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -1797,10 +1791,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="23" t="s">
         <v>34</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2058,10 +2052,10 @@
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -2245,7 +2239,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="27">
         <v>20</v>
@@ -2271,7 +2265,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="27">
         <v>20</v>
@@ -2470,11 +2464,11 @@
       <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
-        <v>32</v>
+      <c r="A20" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="28">
         <v>25</v>
@@ -2502,7 +2496,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="28">
         <v>25</v>
@@ -2674,7 +2668,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="28">
         <v>28</v>
@@ -2700,7 +2694,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="28">
         <v>28</v>
@@ -2776,7 +2770,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="28">
         <v>30</v>

--- a/FR_Frame_Body/FR_A0100 (Frame)/Minimum Rules - Primary Structures.xlsx
+++ b/FR_Frame_Body/FR_A0100 (Frame)/Minimum Rules - Primary Structures.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calixthe\Desktop\EPSA\Gitkraken\STUF2020\STUF-2020\FR_Frame_Body\FR_A0100 (Frame)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calixthe\Desktop\EPSA\STUF-2020\FR_Frame_Body\FR_A0100 (Frame)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575E58A5-A155-4AA1-B1CF-62E5F1C64EE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165305B3-EC8D-431A-BFDA-5508025FB3FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etude Structure Primaire" sheetId="1" r:id="rId1"/>
-    <sheet name="Calcul Masse volumique Tubes" sheetId="2" r:id="rId2"/>
-    <sheet name="Tests Persos" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId2"/>
+    <sheet name="Calcul Masse volumique Tubes" sheetId="2" r:id="rId3"/>
+    <sheet name="Tests Persos" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
   <si>
     <t>Minimum requirements of frame</t>
   </si>
@@ -138,6 +139,9 @@
   </si>
   <si>
     <t>Invictus</t>
+  </si>
+  <si>
+    <t>Le plus optimal et autorisée par le règlement, dans le catalogue</t>
   </si>
 </sst>
 </file>
@@ -201,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +239,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,7 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,7 +419,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -417,14 +433,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -438,7 +454,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -949,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="R53" sqref="Q50:R53"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C7" sqref="A7:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,26 +987,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H6" s="5" t="s">
@@ -1849,11 +1865,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
       <formula>$J$9</formula>
       <formula>$J$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
       <formula>$J$9</formula>
       <formula>$J$8</formula>
     </cfRule>
@@ -1865,6 +1881,263 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B649AB-C754-4395-AD7A-03DF1FA37F74}">
+  <dimension ref="B5:G21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="34">
+        <v>15</v>
+      </c>
+      <c r="D6" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="34">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>1</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="34">
+        <v>18</v>
+      </c>
+      <c r="D8" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20">
+        <v>24</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20">
+        <v>26</v>
+      </c>
+      <c r="D13" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20">
+        <v>26</v>
+      </c>
+      <c r="D14" s="20">
+        <v>2</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20">
+        <v>27</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20">
+        <v>27</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="11">
+        <v>30</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C029872B-DE05-4BC7-A0CB-D7A25B05F1DF}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -2028,7 +2301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38401E3-E0D0-4314-90F3-931084C2E20C}">
   <dimension ref="A3:J41"/>
   <sheetViews>
@@ -2961,13 +3234,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="between" id="{00ACFBD2-9A4B-494B-8109-9DCCE3EE6EAB}">
-            <xm:f>'Etude Structure Primaire'!$J$10</xm:f>
-            <xm:f>'Etude Structure Primaire'!$J$9</xm:f>
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" id="{BBEAA45B-E084-413D-B6BC-893E3DAEBCF9}">
+            <xm:f>'Etude Structure Primaire'!$J$8</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FF92D050"/>
+                  <bgColor rgb="FFFF0000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -2983,12 +3255,13 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" id="{BBEAA45B-E084-413D-B6BC-893E3DAEBCF9}">
-            <xm:f>'Etude Structure Primaire'!$J$8</xm:f>
+          <x14:cfRule type="cellIs" priority="6" operator="between" id="{00ACFBD2-9A4B-494B-8109-9DCCE3EE6EAB}">
+            <xm:f>'Etude Structure Primaire'!$J$10</xm:f>
+            <xm:f>'Etude Structure Primaire'!$J$9</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FFFF0000"/>
+                  <bgColor rgb="FF92D050"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -2996,13 +3269,12 @@
           <xm:sqref>E5:E1048576 E1:E3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="between" id="{4C759452-CEBD-4F83-8FF8-02C9A8D17CD4}">
-            <xm:f>'Etude Structure Primaire'!$N$10</xm:f>
-            <xm:f>'Etude Structure Primaire'!$N$9</xm:f>
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{060184A5-5E20-43B5-BFF3-C85F3F60FACA}">
+            <xm:f>'Etude Structure Primaire'!$N$8</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FF92D050"/>
+                  <bgColor rgb="FFFF0000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -3018,12 +3290,13 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{060184A5-5E20-43B5-BFF3-C85F3F60FACA}">
-            <xm:f>'Etude Structure Primaire'!$N$8</xm:f>
+          <x14:cfRule type="cellIs" priority="3" operator="between" id="{4C759452-CEBD-4F83-8FF8-02C9A8D17CD4}">
+            <xm:f>'Etude Structure Primaire'!$N$10</xm:f>
+            <xm:f>'Etude Structure Primaire'!$N$9</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FFFF0000"/>
+                  <bgColor rgb="FF92D050"/>
                 </patternFill>
               </fill>
             </x14:dxf>

--- a/FR_Frame_Body/FR_A0100 (Frame)/Minimum Rules - Primary Structures.xlsx
+++ b/FR_Frame_Body/FR_A0100 (Frame)/Minimum Rules - Primary Structures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calixthe\Desktop\EPSA\STUF-2020\FR_Frame_Body\FR_A0100 (Frame)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165305B3-EC8D-431A-BFDA-5508025FB3FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CAD0B0-7296-4961-AB03-ED770F7D287B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etude Structure Primaire" sheetId="1" r:id="rId1"/>
@@ -181,13 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -199,6 +192,14 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -357,19 +358,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -402,13 +403,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -963,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C7" sqref="A7:C29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,26 +988,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H6" s="5" t="s">
@@ -1772,15 +1773,9 @@
       <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
       <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1791,25 +1786,43 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="24">
-        <v>43724</v>
-      </c>
+      <c r="A63" s="23"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="24">
+        <v>43724</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B66" s="23" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1884,7 +1897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B649AB-C754-4395-AD7A-03DF1FA37F74}">
   <dimension ref="B5:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -1899,22 +1912,22 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="35" t="s">
         <v>17</v>
       </c>
     </row>

--- a/FR_Frame_Body/FR_A0100 (Frame)/Minimum Rules - Primary Structures.xlsx
+++ b/FR_Frame_Body/FR_A0100 (Frame)/Minimum Rules - Primary Structures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calixthe\Desktop\EPSA\STUF-2020\FR_Frame_Body\FR_A0100 (Frame)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CAD0B0-7296-4961-AB03-ED770F7D287B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2BF699-7D91-4FCA-B33B-66EA349A30AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="35">
   <si>
     <t>Minimum requirements of frame</t>
   </si>
@@ -114,12 +114,6 @@
     <t>Fait par :</t>
   </si>
   <si>
-    <t>Robin CLAMENS</t>
-  </si>
-  <si>
-    <t>Calixthe MATTEI</t>
-  </si>
-  <si>
     <t>ULMTECHNOLOGIE</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>2x + cher que 25x1,5</t>
   </si>
   <si>
-    <t>v2.1</t>
-  </si>
-  <si>
     <t>Véhicule</t>
   </si>
   <si>
@@ -142,6 +133,12 @@
   </si>
   <si>
     <t>Le plus optimal et autorisée par le règlement, dans le catalogue</t>
+  </si>
+  <si>
+    <t>Robin CLAMENS &amp; Calixthe MATTEI</t>
+  </si>
+  <si>
+    <t>v2.2</t>
   </si>
 </sst>
 </file>
@@ -299,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -410,6 +407,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -967,7 +967,7 @@
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1788,13 +1788,11 @@
       <c r="A62" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="23"/>
+      <c r="B62" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
@@ -1804,7 +1802,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
@@ -1812,7 +1810,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
-        <v>43724</v>
+        <v>43925</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
@@ -1820,19 +1818,20 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H33">
     <sortCondition ref="B7"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="D1:F2"/>
+    <mergeCell ref="B62:D62"/>
   </mergeCells>
   <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
@@ -1925,7 +1924,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>17</v>
@@ -2338,10 +2337,10 @@
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -2525,7 +2524,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="27">
         <v>20</v>
@@ -2551,7 +2550,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="27">
         <v>20</v>
@@ -2751,10 +2750,10 @@
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="28">
         <v>25</v>
@@ -2782,7 +2781,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="28">
         <v>25</v>
@@ -2954,7 +2953,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="28">
         <v>28</v>
@@ -2980,7 +2979,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="28">
         <v>28</v>
@@ -3056,7 +3055,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32" s="28">
         <v>30</v>

--- a/FR_Frame_Body/FR_A0100 (Frame)/Minimum Rules - Primary Structures.xlsx
+++ b/FR_Frame_Body/FR_A0100 (Frame)/Minimum Rules - Primary Structures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calixthe\Desktop\EPSA\STUF-2020\FR_Frame_Body\FR_A0100 (Frame)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2BF699-7D91-4FCA-B33B-66EA349A30AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE58C49B-6DD5-4FF6-A764-FAAFFA5CE751}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9216" yWindow="0" windowWidth="13824" windowHeight="7248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etude Structure Primaire" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="37">
   <si>
     <t>Minimum requirements of frame</t>
   </si>
@@ -140,15 +140,22 @@
   <si>
     <t>v2.2</t>
   </si>
+  <si>
+    <t>Min Règlement</t>
+  </si>
+  <si>
+    <t>Gain massique (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000_ ;[Red]\-0.0000000\ "/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +209,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,8 +261,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -292,11 +319,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,17 +459,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -536,6 +737,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC45314"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -602,13 +808,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>268877</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>166552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>483940</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>90583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -652,13 +858,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1328057</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>892323</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>98335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -964,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,26 +1194,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H6" s="5" t="s">
@@ -1069,11 +1275,11 @@
         <v>0.8</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" ref="D8:D33" si="0">((B8/2)^2)*PI()-((B8/2-C8)^2)*PI()</f>
+        <f t="shared" ref="D8:D36" si="0">((B8/2)^2)*PI()-((B8/2-C8)^2)*PI()</f>
         <v>23.122121930420882</v>
       </c>
       <c r="E8" s="13">
-        <f t="shared" ref="E8:E33" si="1">(PI()*(B8^4-(B8-2*C8)^4))/64</f>
+        <f t="shared" ref="E8:E36" si="1">(PI()*(B8^4-(B8-2*C8)^4))/64</f>
         <v>246.48181977828656</v>
       </c>
       <c r="F8" s="5">
@@ -1344,7 +1550,7 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20">
         <v>23</v>
@@ -1368,7 +1574,7 @@
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="20">
         <v>24</v>
@@ -1392,7 +1598,7 @@
       <c r="H18" s="20"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1417,7 +1623,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -1442,306 +1648,300 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20">
-        <v>26</v>
-      </c>
-      <c r="C21" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="D21" s="20">
-        <f t="shared" si="0"/>
-        <v>115.45353001942493</v>
-      </c>
-      <c r="E21" s="20">
-        <f t="shared" si="1"/>
-        <v>8695.0939795879367</v>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="36"/>
+      <c r="B21" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D21" s="36">
+        <f t="shared" si="0"/>
+        <v>91.231850660247574</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="1"/>
+        <v>6695.0493607022672</v>
       </c>
       <c r="F21" s="20">
         <f>PI()*'Calcul Masse volumique Tubes'!C$2*D21</f>
-        <v>0.90880310096733252</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20">
-        <v>26</v>
-      </c>
-      <c r="C22" s="20">
-        <v>2</v>
-      </c>
-      <c r="D22" s="20">
-        <f t="shared" si="0"/>
-        <v>150.79644737231007</v>
-      </c>
-      <c r="E22" s="20">
-        <f t="shared" si="1"/>
-        <v>10932.74243449248</v>
+        <v>0.71813991978479796</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D22" s="36">
+        <f t="shared" si="0"/>
+        <v>119.63184824869933</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="1"/>
+        <v>8508.8152066887378</v>
       </c>
       <c r="F22" s="20">
         <f>PI()*'Calcul Masse volumique Tubes'!C$2*D22</f>
-        <v>1.1870081318756993</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.94169311795472144</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="20">
         <v>1.5</v>
       </c>
       <c r="D23" s="20">
         <f t="shared" si="0"/>
-        <v>120.16591899980955</v>
+        <v>115.45353001942493</v>
       </c>
       <c r="E23" s="20">
         <f t="shared" si="1"/>
-        <v>9801.0327684219701</v>
+        <v>8695.0939795879367</v>
       </c>
       <c r="F23" s="20">
         <f>PI()*'Calcul Masse volumique Tubes'!C$2*D23</f>
-        <v>0.9458971050884476</v>
+        <v>0.90880310096733252</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="20">
         <v>2</v>
       </c>
       <c r="D24" s="20">
         <f t="shared" si="0"/>
-        <v>157.07963267948963</v>
+        <v>150.79644737231007</v>
       </c>
       <c r="E24" s="20">
         <f t="shared" si="1"/>
-        <v>12350.386119424875</v>
+        <v>10932.74243449248</v>
       </c>
       <c r="F24" s="20">
         <f>PI()*'Calcul Masse volumique Tubes'!C$2*D24</f>
-        <v>1.2364668040371867</v>
+        <v>1.1870081318756993</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20">
+        <v>27</v>
+      </c>
+      <c r="C25" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" si="0"/>
+        <v>120.16591899980955</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" si="1"/>
+        <v>9801.0327684219701</v>
+      </c>
+      <c r="F25" s="20">
+        <f>PI()*'Calcul Masse volumique Tubes'!C$2*D25</f>
+        <v>0.9458971050884476</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20">
+        <v>25</v>
+      </c>
+      <c r="C26" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="D26" s="20">
+        <f t="shared" si="0"/>
+        <v>176.71458676442586</v>
+      </c>
+      <c r="E26" s="20">
+        <f t="shared" si="1"/>
+        <v>11320.778214596032</v>
+      </c>
+      <c r="F26" s="20">
+        <f>PI()*'Calcul Masse volumique Tubes'!C$2*D26</f>
+        <v>1.3910251545418351</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20">
+        <v>27</v>
+      </c>
+      <c r="C27" s="20">
+        <v>2</v>
+      </c>
+      <c r="D27" s="20">
+        <f t="shared" si="0"/>
+        <v>157.07963267948963</v>
+      </c>
+      <c r="E27" s="20">
+        <f t="shared" si="1"/>
+        <v>12350.386119424875</v>
+      </c>
+      <c r="F27" s="20">
+        <f>PI()*'Calcul Masse volumique Tubes'!C$2*D27</f>
+        <v>1.2364668040371867</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2">
         <v>28</v>
       </c>
-      <c r="C25" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C28" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D28" s="5">
         <f t="shared" si="0"/>
         <v>124.87830798019422</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E28" s="13">
         <f t="shared" si="1"/>
         <v>10997.095996505859</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F28" s="5">
         <v>0.98</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="G28" s="5"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2">
         <v>28</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C29" s="2">
         <v>2</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D29" s="5">
         <f t="shared" si="0"/>
         <v>163.3628179866692</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E29" s="13">
         <f t="shared" si="1"/>
         <v>13885.839528866885</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F29" s="5">
         <v>1.28</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="11">
-        <v>30</v>
-      </c>
-      <c r="C27" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="D27" s="12">
-        <f t="shared" si="0"/>
-        <v>134.30308594096368</v>
-      </c>
-      <c r="E27" s="13">
-        <f t="shared" si="1"/>
-        <v>13673.732937364362</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="2">
-        <v>30</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2</v>
-      </c>
-      <c r="D28" s="5">
-        <f t="shared" si="0"/>
-        <v>175.92918860102839</v>
-      </c>
-      <c r="E28" s="13">
-        <f t="shared" si="1"/>
-        <v>17329.025077201299</v>
-      </c>
-      <c r="F28" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="3">
-        <v>32</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4">
-        <f t="shared" si="0"/>
-        <v>188.49555921538763</v>
-      </c>
-      <c r="E29" s="13">
-        <f t="shared" si="1"/>
-        <v>21299.998191338796</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1.5</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="4">
-        <v>35</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="D30" s="4">
-        <f t="shared" si="0"/>
-        <v>157.86503084288711</v>
+      <c r="B30" s="11">
+        <v>30</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" si="0"/>
+        <v>134.30308594096368</v>
       </c>
       <c r="E30" s="13">
         <f t="shared" si="1"/>
-        <v>22189.903397853319</v>
+        <v>13673.732937364362</v>
       </c>
       <c r="F30" s="5">
-        <v>1.24</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+        <v>1.05</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="5"/>
-      <c r="K30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="4">
-        <v>35</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2">
         <v>2</v>
       </c>
-      <c r="D31" s="4">
-        <f t="shared" si="0"/>
-        <v>207.34511513692632</v>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>175.92918860102839</v>
       </c>
       <c r="E31" s="13">
         <f t="shared" si="1"/>
-        <v>28328.526355582562</v>
+        <v>17329.025077201299</v>
       </c>
       <c r="F31" s="5">
-        <v>1.63</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.4</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="4">
-        <v>35</v>
-      </c>
-      <c r="C32" s="4">
-        <v>2.5</v>
+      <c r="B32" s="3">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="0"/>
-        <v>255.25440310417071</v>
+        <v>188.49555921538763</v>
       </c>
       <c r="E32" s="13">
         <f t="shared" si="1"/>
-        <v>33900.975412272666</v>
+        <v>21299.998191338796</v>
       </c>
       <c r="F32" s="5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>22</v>
       </c>
@@ -1749,50 +1949,106 @@
         <v>35</v>
       </c>
       <c r="C33" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="0"/>
-        <v>301.59289474462014</v>
+        <v>157.86503084288711</v>
       </c>
       <c r="E33" s="13">
         <f t="shared" si="1"/>
-        <v>38943.182533899075</v>
+        <v>22189.903397853319</v>
       </c>
       <c r="F33" s="5">
-        <v>2.37</v>
+        <v>1.24</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="K33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="4">
+        <v>35</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>207.34511513692632</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="1"/>
+        <v>28328.526355582562</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="4">
+        <v>35</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>255.25440310417071</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="1"/>
+        <v>33900.975412272666</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="4">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="0"/>
+        <v>301.59289474462014</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="1"/>
+        <v>38943.182533899075</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2.37</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
@@ -1801,44 +2057,66 @@
       <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="23" t="s">
-        <v>34</v>
-      </c>
+      <c r="A64" s="23"/>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="24">
+      <c r="A65" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="24">
         <v>43925</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B69" s="23" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H36">
     <sortCondition ref="B7"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="D1:F2"/>
-    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B65:D65"/>
   </mergeCells>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="greaterThan">
       <formula>175</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F34">
+  <conditionalFormatting sqref="F8:F37">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1850,38 +2128,38 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D40">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="between">
+  <conditionalFormatting sqref="D8:D43">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="between">
       <formula>$J$10</formula>
       <formula>$J$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="between">
       <formula>$J$9</formula>
       <formula>$J$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="greaterThan">
       <formula>$J$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E40">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="E8:E43">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThanOrEqual">
       <formula>$N$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="between">
       <formula>$N$9</formula>
       <formula>$N$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="between">
       <formula>$N$10</formula>
       <formula>$N$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="between">
       <formula>$J$9</formula>
       <formula>$J$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="between">
       <formula>$J$9</formula>
       <formula>$J$8</formula>
     </cfRule>
@@ -2288,22 +2566,22 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f>PI()*'Etude Structure Primaire'!D25</f>
+        <f>PI()*'Etude Structure Primaire'!D28</f>
         <v>392.31677494330182</v>
       </c>
       <c r="B12" s="1">
-        <f>'Etude Structure Primaire'!F25/A12</f>
+        <f>'Etude Structure Primaire'!F28/A12</f>
         <v>2.4979813828802781E-3</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f>PI()*'Etude Structure Primaire'!D26</f>
+        <f>PI()*'Etude Structure Primaire'!D29</f>
         <v>513.21942885664646</v>
       </c>
       <c r="B13" s="1">
-        <f>'Etude Structure Primaire'!F26/A13</f>
+        <f>'Etude Structure Primaire'!F29/A13</f>
         <v>2.4940599050421613E-3</v>
       </c>
       <c r="C13" s="1"/>
@@ -2315,10 +2593,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38401E3-E0D0-4314-90F3-931084C2E20C}">
-  <dimension ref="A3:J41"/>
+  <dimension ref="A3:T41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView showGridLines="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2332,10 +2610,18 @@
     <col min="7" max="7" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="44.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="1"/>
+    <col min="11" max="12" width="11.5546875" style="1"/>
+    <col min="13" max="13" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5546875" style="1"/>
+    <col min="16" max="16" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" style="1"/>
+    <col min="18" max="18" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" style="1"/>
+    <col min="20" max="20" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
@@ -2343,7 +2629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
         <v>21</v>
       </c>
@@ -2371,8 +2657,20 @@
       <c r="J4" s="25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="P4" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>22</v>
       </c>
@@ -2396,8 +2694,32 @@
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="M5" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2">
+        <v>25</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="42">
+        <f t="shared" ref="P5:P6" si="2">((N5/2)^2)*PI()-((N5/2-O5)^2)*PI()</f>
+        <v>110.7411410390402</v>
+      </c>
+      <c r="Q5" s="40">
+        <f t="shared" ref="Q5:Q6" si="3">(PI()*(N5^4-(N5-2*O5)^4))/64</f>
+        <v>7675.7453382684744</v>
+      </c>
+      <c r="R5" s="40">
+        <v>0.88</v>
+      </c>
+      <c r="T5" s="49">
+        <f>((R5-R6)/R5)*100</f>
+        <v>18.409090909090914</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
         <v>22</v>
       </c>
@@ -2421,8 +2743,29 @@
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="M6" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="P6" s="42">
+        <f t="shared" si="2"/>
+        <v>91.231850660247574</v>
+      </c>
+      <c r="Q6" s="40">
+        <f t="shared" si="3"/>
+        <v>6695.0493607022672</v>
+      </c>
+      <c r="R6" s="41">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="T6" s="49"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
         <v>22</v>
       </c>
@@ -2446,8 +2789,9 @@
       <c r="H7" s="9"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="T7" s="48"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
         <v>22</v>
       </c>
@@ -2471,8 +2815,32 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="M8" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="2">
+        <v>28</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="P8" s="43">
+        <f t="shared" ref="P8:P9" si="4">((N8/2)^2)*PI()-((N8/2-O8)^2)*PI()</f>
+        <v>124.87830798019422</v>
+      </c>
+      <c r="Q8" s="44">
+        <f t="shared" ref="Q8:Q9" si="5">(PI()*(N8^4-(N8-2*O8)^4))/64</f>
+        <v>10997.095996505859</v>
+      </c>
+      <c r="R8" s="44">
+        <v>0.98</v>
+      </c>
+      <c r="T8" s="50">
+        <f>((R8-R9)/R8)*100</f>
+        <v>4.0816326530612281</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
         <v>22</v>
       </c>
@@ -2496,8 +2864,29 @@
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="M9" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="P9" s="43">
+        <f t="shared" si="4"/>
+        <v>119.63184824869933</v>
+      </c>
+      <c r="Q9" s="44">
+        <f t="shared" si="5"/>
+        <v>8508.8152066887378</v>
+      </c>
+      <c r="R9" s="45">
+        <v>0.94</v>
+      </c>
+      <c r="T9" s="51"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
         <v>22</v>
       </c>
@@ -2521,8 +2910,9 @@
       <c r="H10" s="9"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="T10" s="48"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>26</v>
       </c>
@@ -2547,8 +2937,32 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="M11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="2">
+        <v>30</v>
+      </c>
+      <c r="O11" s="2">
+        <v>2</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" ref="P11:P12" si="6">((N11/2)^2)*PI()-((N11/2-O11)^2)*PI()</f>
+        <v>175.92918860102839</v>
+      </c>
+      <c r="Q11" s="46">
+        <f t="shared" ref="Q11:Q12" si="7">(PI()*(N11^4-(N11-2*O11)^4))/64</f>
+        <v>17329.025077201299</v>
+      </c>
+      <c r="R11" s="36">
+        <v>1.4</v>
+      </c>
+      <c r="T11" s="49">
+        <f>((R11-R12)/R11)*100</f>
+        <v>0.71428571428571497</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
         <v>26</v>
       </c>
@@ -2573,8 +2987,29 @@
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="M12" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="2">
+        <v>25</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="P12" s="8">
+        <f t="shared" si="6"/>
+        <v>176.71458676442586</v>
+      </c>
+      <c r="Q12" s="46">
+        <f t="shared" si="7"/>
+        <v>11320.778214596032</v>
+      </c>
+      <c r="R12" s="47">
+        <v>1.39</v>
+      </c>
+      <c r="T12" s="49"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
         <v>22</v>
       </c>
@@ -2598,8 +3033,9 @@
       <c r="H13" s="25"/>
       <c r="I13" s="2"/>
       <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="T13" s="48"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="25" t="s">
         <v>22</v>
       </c>
@@ -2624,7 +3060,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="25"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="20"/>
       <c r="C15" s="20">
         <v>23</v>
@@ -2648,7 +3084,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="20"/>
       <c r="C16" s="20">
         <v>23</v>
@@ -3228,8 +3664,35 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:J37">
     <sortCondition ref="C5"/>
   </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T11:T12"/>
+  </mergeCells>
   <conditionalFormatting sqref="G5:G30">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>$J$9</formula>
+      <formula>$J$8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
+      <formula>$J$9</formula>
+      <formula>$J$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3246,7 +3709,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" id="{BBEAA45B-E084-413D-B6BC-893E3DAEBCF9}">
+          <x14:cfRule type="cellIs" priority="25" operator="greaterThanOrEqual" id="{BBEAA45B-E084-413D-B6BC-893E3DAEBCF9}">
             <xm:f>'Etude Structure Primaire'!$J$8</xm:f>
             <x14:dxf>
               <fill>
@@ -3256,7 +3719,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="5" operator="between" id="{20599F42-5F8D-40B2-A1CF-13C9B1A80816}">
+          <x14:cfRule type="cellIs" priority="26" operator="between" id="{20599F42-5F8D-40B2-A1CF-13C9B1A80816}">
             <xm:f>'Etude Structure Primaire'!$J$9</xm:f>
             <xm:f>'Etude Structure Primaire'!$J$8</xm:f>
             <x14:dxf>
@@ -3267,7 +3730,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" operator="between" id="{00ACFBD2-9A4B-494B-8109-9DCCE3EE6EAB}">
+          <x14:cfRule type="cellIs" priority="27" operator="between" id="{00ACFBD2-9A4B-494B-8109-9DCCE3EE6EAB}">
             <xm:f>'Etude Structure Primaire'!$J$10</xm:f>
             <xm:f>'Etude Structure Primaire'!$J$9</xm:f>
             <x14:dxf>
@@ -3281,7 +3744,7 @@
           <xm:sqref>E5:E1048576 E1:E3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{060184A5-5E20-43B5-BFF3-C85F3F60FACA}">
+          <x14:cfRule type="cellIs" priority="22" operator="greaterThan" id="{060184A5-5E20-43B5-BFF3-C85F3F60FACA}">
             <xm:f>'Etude Structure Primaire'!$N$8</xm:f>
             <x14:dxf>
               <fill>
@@ -3291,7 +3754,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" operator="between" id="{063C426D-BB69-471F-853F-C6FA1BB9961B}">
+          <x14:cfRule type="cellIs" priority="23" operator="between" id="{063C426D-BB69-471F-853F-C6FA1BB9961B}">
             <xm:f>'Etude Structure Primaire'!$N$9</xm:f>
             <xm:f>'Etude Structure Primaire'!$N$8</xm:f>
             <x14:dxf>
@@ -3302,7 +3765,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" operator="between" id="{4C759452-CEBD-4F83-8FF8-02C9A8D17CD4}">
+          <x14:cfRule type="cellIs" priority="24" operator="between" id="{4C759452-CEBD-4F83-8FF8-02C9A8D17CD4}">
             <xm:f>'Etude Structure Primaire'!$N$10</xm:f>
             <xm:f>'Etude Structure Primaire'!$N$9</xm:f>
             <x14:dxf>
